--- a/data/precios_monomico.xlsx
+++ b/data/precios_monomico.xlsx
@@ -1,37 +1,270 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
+  <si>
+    <t>CENTRAL</t>
+  </si>
+  <si>
+    <t>TECNOLOGIA</t>
+  </si>
+  <si>
+    <t>Precio Monómico USD/MWh 012023</t>
+  </si>
+  <si>
+    <t>Precio Monómico USD/MWh 022023</t>
+  </si>
+  <si>
+    <t>Precio Monómico USD/MWh 032023</t>
+  </si>
+  <si>
+    <t>Precio Monómico USD/MWh 042023</t>
+  </si>
+  <si>
+    <t>Precio Monómico USD/MWh 052023</t>
+  </si>
+  <si>
+    <t>Precio Monómico USD/MWh 062023</t>
+  </si>
+  <si>
+    <t>Precio Monómico USD/MWh 072023</t>
+  </si>
+  <si>
+    <t>Precio Monómico USD/MWh 082023</t>
+  </si>
+  <si>
+    <t>Precio Monómico USD/MWh 092023</t>
+  </si>
+  <si>
+    <t>Precio Monómico USD/MWh 102023</t>
+  </si>
+  <si>
+    <t>Precio Monómico USD/MWh 112023</t>
+  </si>
+  <si>
+    <t>Precio Monómico USD/MWh 122023</t>
+  </si>
+  <si>
+    <t>Precio Monómico USD/MWh 012024</t>
+  </si>
+  <si>
+    <t>Precio Monómico USD/MWh 022024</t>
+  </si>
+  <si>
+    <t>Precio Monómico USD/MWh 032024</t>
+  </si>
+  <si>
+    <t>Precio Monómico USD/MWh 042024</t>
+  </si>
+  <si>
+    <t>Precio Monómico USD/MWh 052024</t>
+  </si>
+  <si>
+    <t>Precio Monómico USD/MWh 062024</t>
+  </si>
+  <si>
+    <t>Precio Monómico USD/MWh 072024</t>
+  </si>
+  <si>
+    <t>Precio Monómico USD/MWh 082024</t>
+  </si>
+  <si>
+    <t>Precio Monómico USD/MWh 092024</t>
+  </si>
+  <si>
+    <t>Precio Monómico USD/MWh 102024</t>
+  </si>
+  <si>
+    <t>Precio Monómico USD/MWh 112024</t>
+  </si>
+  <si>
+    <t>Precio Monómico USD/MWh 122024</t>
+  </si>
+  <si>
+    <t>Precio Monómico USD/MWh 012025</t>
+  </si>
+  <si>
+    <t>Precio Monómico USD/MWh 022025</t>
+  </si>
+  <si>
+    <t>Precio Monómico USD/MWh 032025</t>
+  </si>
+  <si>
+    <t>Precio Monómico USD/MWh 042025</t>
+  </si>
+  <si>
+    <t>Precio Monómico USD/MWh 052025</t>
+  </si>
+  <si>
+    <t>Precio Monómico USD/MWh 062025</t>
+  </si>
+  <si>
+    <t>Aguai (Autoproductor)</t>
+  </si>
+  <si>
+    <t>Aguaí Energia</t>
+  </si>
+  <si>
+    <t>Aranjuez</t>
+  </si>
+  <si>
+    <t>C. El Alto</t>
+  </si>
+  <si>
+    <t>CHACO ENERGIAS S.A.</t>
+  </si>
+  <si>
+    <t>Corani</t>
+  </si>
+  <si>
+    <t>Cumbre</t>
+  </si>
+  <si>
+    <t>Del Sur</t>
+  </si>
+  <si>
+    <t>Entre Ríos</t>
+  </si>
+  <si>
+    <t>Entre Ríos II</t>
+  </si>
+  <si>
+    <t>Eólica El Dorado</t>
+  </si>
+  <si>
+    <t>Eólica San Julián</t>
+  </si>
+  <si>
+    <t>Eólica Warnes</t>
+  </si>
+  <si>
+    <t>GBE</t>
+  </si>
+  <si>
+    <t>Guaracachi</t>
+  </si>
+  <si>
+    <t>HB</t>
+  </si>
+  <si>
+    <t>Huaji</t>
+  </si>
+  <si>
+    <t>Kanata VHE</t>
+  </si>
+  <si>
+    <t>Miguillas</t>
+  </si>
+  <si>
+    <t>Misicuni VHE</t>
+  </si>
+  <si>
+    <t>Qollpana (Fase I)</t>
+  </si>
+  <si>
+    <t>Qollpana (Fase II)</t>
+  </si>
+  <si>
+    <t>RIO ELECTRICO S.A.</t>
+  </si>
+  <si>
+    <t>SDB</t>
+  </si>
+  <si>
+    <t>San Jacinto</t>
+  </si>
+  <si>
+    <t>San José I</t>
+  </si>
+  <si>
+    <t>San José II</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>Santa Cruz (EASBA)</t>
+  </si>
+  <si>
+    <t>Santa Cruz (Unagro)</t>
+  </si>
+  <si>
+    <t>Santa Isabel</t>
+  </si>
+  <si>
+    <t>Solar Oruro (Fase I)</t>
+  </si>
+  <si>
+    <t>Solar Oruro (Fase II)</t>
+  </si>
+  <si>
+    <t>Uyuni</t>
+  </si>
+  <si>
+    <t>Valle Hermoso</t>
+  </si>
+  <si>
+    <t>Warnes</t>
+  </si>
+  <si>
+    <t>Yunchara</t>
+  </si>
+  <si>
+    <t>Zongo</t>
+  </si>
+  <si>
+    <t>Biomasa</t>
+  </si>
+  <si>
+    <t>Termo</t>
+  </si>
+  <si>
+    <t>Hidro</t>
+  </si>
+  <si>
+    <t>Eólica</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +279,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,3630 +595,3194 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CENTRAL</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>TECNOLOGIA</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Precio Monómico USD/MWh 012023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Precio Monómico USD/MWh 022023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Precio Monómico USD/MWh 032023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Precio Monómico USD/MWh 042023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Precio Monómico USD/MWh 052023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Precio Monómico USD/MWh 062023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Precio Monómico USD/MWh 072023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Precio Monómico USD/MWh 082023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Precio Monómico USD/MWh 092023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Precio Monómico USD/MWh 102023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Precio Monómico USD/MWh 112023</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Precio Monómico USD/MWh 122023</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Precio Monómico USD/MWh 012024</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Precio Monómico USD/MWh 022024</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Precio Monómico USD/MWh 032024</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Precio Monómico USD/MWh 042024</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Precio Monómico USD/MWh 052024</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Precio Monómico USD/MWh 062024</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Precio Monómico USD/MWh 072024</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Precio Monómico USD/MWh 082024</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Precio Monómico USD/MWh 092024</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Precio Monómico USD/MWh 102024</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Precio Monómico USD/MWh 112024</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Precio Monómico USD/MWh 122024</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Precio Monómico USD/MWh 012025</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Precio Monómico USD/MWh 022025</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Precio Monómico USD/MWh 032025</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Precio Monómico USD/MWh 042025</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Precio Monómico USD/MWh 052025</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Precio Monómico USD/MWh 062025</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Aguai (Autoproductor)</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Biomasa</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
+    <row r="1" spans="1:32">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2">
         <v>29.07392590251798</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>29.36520340064861</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>33.84683953742918</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>68.84745583824021</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>40.54372042235981</v>
       </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>30.88729791128371</v>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>16.50009501105583</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>24.77923032651861</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>27.45635271297863</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>28.16774277831702</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>27.94464635618218</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>32.65773264124746</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>32.58370444808919</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>29.84369778359311</v>
       </c>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>30.35705834934477</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>29.75380591919026</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Aguaí Energia</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Biomasa</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
+    <row r="3" spans="1:32">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3">
         <v>28.55539627101774</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>30.62074669060925</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>29.83630411449049</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>27.77668700157308</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>27.66436050492642</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>28.35324969369688</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>28.89561753362052</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>30.19895547241914</v>
       </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>16.26874876652852</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>28.52464577909023</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>29.18284923343062</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>28.76970229807875</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>29.05080781710329</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>33.17462776946449</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>32.29646004373615</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>29.9822275262317</v>
       </c>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>15.18467912552891</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>31.5986872433591</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>29.81352329180392</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Aranjuez</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Termo</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    <row r="4" spans="1:32">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4">
         <v>35.37149982484486</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>37.4329711413952</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>35.31174682786317</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>36.30403261914186</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>35.77263727708263</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>38.95266531512424</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>36.53920303782283</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>35.83813411588277</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>37.31199215702235</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>36.54993931201319</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>36.43186311556198</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>36.76323219102814</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>36.30603272728703</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>37.51903790158474</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>36.33396690098421</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>37.39380718190807</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>39.9915578975083</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>40.74328138342123</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>39.77758335861597</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>39.43144019612724</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>38.94309583331059</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>38.36691397485751</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>42.58932505517807</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>90.35330743454539</v>
       </c>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>109.8307570065166</v>
       </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>93.22765794988197</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>98.00152553962081</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>C. El Alto</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Termo</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+    <row r="5" spans="1:32">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5">
         <v>15.4001273044877</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>15.31929957898372</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>15.34844061260092</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>16.32703653241697</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>15.62656315529412</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>15.64064387762306</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>24.54205764498463</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>22.28525209069402</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>28.52467980551159</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>29.04906127265116</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>26.19614009949898</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>36.07061632098761</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>31.17457420329037</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>41.2812017224774</v>
       </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>60.22149188541086</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>20.47271532784285</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>15.52937472634193</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>15.64814259381078</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>16.10186166648608</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>20.77313536162011</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>31.06620049565989</v>
       </c>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="n">
+      <c r="AF5">
         <v>26.44287014585333</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CHACO ENERGIAS S.A.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Termo</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+    <row r="6" spans="1:32">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6">
         <v>83.19074943350385</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>42.78550747333337</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>48.1462514914342</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>26.50824932273393</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>20.54446529168695</v>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>77.53732284772941</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>20.21504570520197</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>22.28092620197615</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>20.28612165697432</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>20.51869691264709</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>95.69380585508098</v>
       </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>35.21579258410437</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>42.41320802287299</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>43.73954996062914</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>57.80699425796161</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>23.45821629814511</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>29.5082103294153</v>
       </c>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Corani</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Hidro</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7">
         <v>92.37067779181366</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>60.2280479010661</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>52.78760089664635</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>48.11876099801508</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>50.96534432804161</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>46.78871074161842</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>46.08416546430153</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>36.71287248760395</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>88.96900458437706</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>58.63132642248583</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>29.83698300019259</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>31.13502224138588</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>33.88642424231299</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>33.72656139443838</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>33.19838160747927</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>38.74380409750004</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>39.82793345130408</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7">
         <v>42.24272231453564</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7">
         <v>47.4398407794791</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>43.72151142290484</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7">
         <v>44.6946533643796</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7">
         <v>56.00421576730673</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7">
         <v>31.9507131806764</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7">
         <v>29.14791050471582</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7">
         <v>30.5555357062881</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7">
         <v>32.67322670439149</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Cumbre</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Hidro</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+    <row r="8" spans="1:32">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8">
         <v>29.0439023271741</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>26.89264651919627</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>28.36629825348665</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>30.66451478388082</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>35.39981995908001</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>66.53440953580119</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>100.4248958216547</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>63.46864282675184</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>41.83777696416923</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>27.5202800611277</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>44.63209138094926</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>38.79597464979638</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>31.37459401211925</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>34.37987735010693</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>43.40581917649563</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>69.30028188036324</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>69.66078102475798</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>74.515155716951</v>
       </c>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="n">
+      <c r="X8">
         <v>94.28273379429433</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8">
         <v>34.68104348607179</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8">
         <v>29.92097689303102</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8">
         <v>29.23277392797157</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8">
         <v>31.0360672401836</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8">
         <v>28.66933023202269</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8">
         <v>29.89249883877497</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8">
         <v>35.89816320813017</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8">
         <v>53.14484709137041</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Del Sur</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Termo</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+    <row r="9" spans="1:32">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9">
         <v>27.09994727986151</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>28.21304601617853</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>25.54088600026869</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>29.08514465479041</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>31.46831993379477</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>27.71360040803502</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>25.78798212836393</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>26.59563555495749</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>26.44950004836579</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>26.62808763142681</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>27.95016712724552</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>25.9819215242894</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>27.49984902087451</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>28.05216105519841</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>28.12453366813647</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>27.28809622903572</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>25.2673799706842</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9">
         <v>26.42419571070032</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9">
         <v>25.93069211957757</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9">
         <v>26.22994720156758</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9">
         <v>28.76944385715591</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9">
         <v>28.8893160787571</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9">
         <v>27.3363125261887</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9">
         <v>27.60070075758065</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9">
         <v>28.5443131740296</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9">
         <v>29.42484955781713</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9">
         <v>28.96230797096084</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9">
         <v>28.760694635094</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9">
         <v>27.49848251695981</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9">
         <v>28.61010685620789</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Entre Ríos</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Termo</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="n">
+    <row r="10" spans="1:32">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="W10">
         <v>26.98690574903262</v>
       </c>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="n">
+      <c r="AE10">
         <v>28.41413084921117</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Entre Ríos II</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Termo</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11">
         <v>22.98314385517608</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>25.38573159686203</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>21.49762769647854</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>24.54671538352397</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>28.62552465498747</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>29.84365499646447</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>24.9100622089184</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>24.57150706051403</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>21.58775912129013</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>19.0302849801956</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>31.6125032100306</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>38.4080241988524</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>32.15238261962588</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>33.54487590799539</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>33.28575680250727</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>32.87438925580522</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>32.04060650568547</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11">
         <v>32.43797577026582</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11">
         <v>30.4299865440722</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11">
         <v>28.80977202337206</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11">
         <v>31.92996585340164</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11">
         <v>31.81654851429649</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11">
         <v>30.28061759298714</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11">
         <v>31.3911285439742</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11">
         <v>31.50519461957604</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11">
         <v>31.38474472987971</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11">
         <v>32.65661005024086</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD11">
         <v>38.73146412603726</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE11">
         <v>35.4330150078048</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11">
         <v>31.89383387931784</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Eólica El Dorado</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Eólica</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+    <row r="12" spans="1:32">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12">
         <v>56.00360982410702</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>55.03321293781833</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>58.46016475451889</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>57.42450387614548</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>61.71910044551651</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>59.00950150134857</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>55.82656408923269</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>55.77199911910693</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>58.04577600356904</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>61.8487602337673</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>63.52494797753565</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>57.17305092357412</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>59.66634940560481</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>59.99268223964041</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>59.75778773943138</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>58.63259693577598</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12">
         <v>57.36781868516248</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12">
         <v>56.71197189102454</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12">
         <v>57.44158402253986</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12">
         <v>58.79575680475884</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12">
         <v>73.73931279261144</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12">
         <v>76.06188777917092</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12">
         <v>61.93484833164811</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12">
         <v>62.88482941911205</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12">
         <v>62.57803510870377</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12">
         <v>67.79353601209482</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12">
         <v>63.80467503879259</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD12">
         <v>62.31577999985914</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE12">
         <v>67.94260921207064</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF12">
         <v>64.31054186294926</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Eólica San Julián</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Eólica</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+    <row r="13" spans="1:32">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13">
         <v>57.15884652507722</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>56.35709811048363</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>59.73494454693142</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>57.76966266994827</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>62.37754527913582</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>60.26130152282959</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>57.6921066124062</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>57.68385633922989</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>59.90630590224153</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>63.63045885227073</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>65.14756160726793</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>58.67144064163804</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>60.70647694526323</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13">
         <v>60.90927571077065</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13">
         <v>61.19346634923085</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>60.06984628466479</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13">
         <v>58.74785755305378</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13">
         <v>58.37987453058606</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13">
         <v>58.98487188582335</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13">
         <v>60.53571018064778</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13">
         <v>74.52072113692212</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13">
         <v>76.91791720673886</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13">
         <v>64.02909170630596</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13">
         <v>64.93969001590685</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA13">
         <v>65.4775031754269</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB13">
         <v>68.99224170052698</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AC13">
         <v>66.12475012306787</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AD13">
         <v>64.1529453884018</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE13">
         <v>70.56949071026325</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF13">
         <v>66.79777428021171</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Eólica Warnes</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Eólica</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+    <row r="14" spans="1:32">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14">
         <v>78.35421153410448</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>77.30713756519641</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>81.97978808916558</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>78.38513693474127</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>84.77019281167532</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>83.01998351458344</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>79.45912922565671</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>79.08567239905207</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>82.20843083646579</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>86.99996851001038</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>90.02591328515803</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>80.90371882648135</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>83.85974106238878</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14">
         <v>84.65749640479333</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14">
         <v>85.0377733737119</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>82.58710507308602</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14">
         <v>80.51372467147428</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14">
         <v>80.12559005790915</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14">
         <v>80.847521007617</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14">
         <v>82.83687894912343</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14">
         <v>101.8128174080095</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14">
         <v>105.6827240626393</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14">
         <v>87.18496827623851</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14">
         <v>89.95891207159244</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14">
         <v>89.76210878548343</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14">
         <v>94.86597106538802</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14">
         <v>90.810377075952</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14">
         <v>88.73864128864491</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14">
         <v>96.38132027540446</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14">
         <v>93.52712171148357</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>GBE</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Biomasa</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
+    <row r="15" spans="1:32">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15">
         <v>35.74045648531961</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>26.72955917130101</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>26.76195751205169</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>27.27461510269737</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>28.9073693778402</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>30.53827854681282</v>
       </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+      <c r="S15">
         <v>29.4380676012949</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15">
         <v>27.40754485433868</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15">
         <v>27.30973631016685</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15">
         <v>28.3913594280814</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W15">
         <v>32.08966235036599</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X15">
         <v>35.25742016920846</v>
       </c>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="n">
+      <c r="AF15">
         <v>29.27663332258913</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Guaracachi</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Termo</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+    <row r="16" spans="1:32">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16">
         <v>27.25296663367713</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>28.34650926510049</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>27.79788820199297</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>28.14520540351069</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>27.09721459505023</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>31.40112498033323</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>27.5734626917009</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>27.02819296267267</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>27.01653144235938</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>29.40769659845217</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>28.50667502947169</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16">
         <v>26.93821802507497</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16">
         <v>27.79878922993512</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16">
         <v>30.09354657918454</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16">
         <v>39.31172921475308</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16">
         <v>43.60736775976022</v>
       </c>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="n">
+      <c r="W16">
         <v>64.05786883711271</v>
       </c>
-      <c r="X16" t="n">
+      <c r="X16">
         <v>33.62005808650301</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Y16">
         <v>29.17808256612772</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="Z16">
         <v>31.63913731434888</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16">
         <v>29.3348229396303</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16">
         <v>30.80360469258911</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16">
         <v>34.57665116478064</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16">
         <v>32.1551786440702</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE16">
         <v>31.87409616938949</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF16">
         <v>32.10099764422814</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>HB</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Hidro</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+    <row r="17" spans="1:32">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17">
         <v>36.83978162049415</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>29.72606277190012</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>32.3457571745727</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>38.70152244175095</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>47.84385945160348</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>102.5423275965083</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>108.219778962169</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>66.91807019780506</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17">
         <v>31.90366416533729</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>32.11791868195326</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17">
         <v>33.0959078351318</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17">
         <v>28.92819928331788</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17">
         <v>45.42535907065567</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S17">
         <v>70.93751962027575</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T17">
         <v>98.28714422124368</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U17">
         <v>91.26219083555907</v>
       </c>
-      <c r="V17" t="n">
+      <c r="V17">
         <v>102.6297166402755</v>
       </c>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="n">
+      <c r="Y17">
         <v>49.41525192935512</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="Z17">
         <v>40.64148176092863</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17">
         <v>29.35918294499168</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17">
         <v>30.59353762638498</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17">
         <v>27.99691971558219</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17">
         <v>29.11882641527255</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17">
         <v>38.51977208527678</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17">
         <v>68.13910758482217</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Huaji</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Hidro</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+    <row r="18" spans="1:32">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18">
         <v>22.29250444247615</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>26.22735335375174</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>22.89028549940023</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>23.65454455920921</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>30.1708360024585</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>36.87429227940986</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>50.8966574253265</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>60.1862685598288</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>40.90532915841398</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>26.72655393540958</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>26.72432700771543</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18">
         <v>24.27873693362852</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18">
         <v>17.16014810226786</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18">
         <v>22.04695501067436</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18">
         <v>20.07271126473092</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18">
         <v>22.45760993175253</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S18">
         <v>26.14905501638095</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T18">
         <v>43.22873510554857</v>
       </c>
-      <c r="U18" t="n">
+      <c r="U18">
         <v>36.51304476434448</v>
       </c>
-      <c r="V18" t="n">
+      <c r="V18">
         <v>35.0381358863949</v>
       </c>
-      <c r="W18" t="n">
+      <c r="W18">
         <v>40.98408870169738</v>
       </c>
-      <c r="X18" t="n">
+      <c r="X18">
         <v>34.64349509728233</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Y18">
         <v>28.51074914838717</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="Z18">
         <v>26.66641743360386</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18">
         <v>33.46687722427194</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18">
         <v>39.3218275273512</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18">
         <v>28.29076751755148</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD18">
         <v>33.73985633424519</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE18">
         <v>33.39710988764813</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18">
         <v>35.48478886116352</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Kanata VHE</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Termo</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+    <row r="19" spans="1:32">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19">
         <v>88.37099318817663</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>55.57976908497889</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>76.5407793777669</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>92.95124022977681</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>93.66305161087558</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>99.44186557233247</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>96.37099236291152</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>99.80298329717016</v>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>101.1304610352375</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>93.59687581098807</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19">
         <v>99.46324439538741</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19">
         <v>87.78047531744186</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19">
         <v>41.42850429959852</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19">
         <v>41.2728146393837</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19">
         <v>57.38263183412995</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S19">
         <v>61.05912075706064</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T19">
         <v>64.6385706169839</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U19">
         <v>69.7111605070185</v>
       </c>
-      <c r="V19" t="n">
+      <c r="V19">
         <v>80.95602165890193</v>
       </c>
-      <c r="W19" t="n">
+      <c r="W19">
         <v>80.20254145547119</v>
       </c>
-      <c r="X19" t="n">
+      <c r="X19">
         <v>79.5506216266815</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Y19">
         <v>72.69550209608823</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="Z19">
         <v>64.51790616256756</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19">
         <v>34.22818214770538</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19">
         <v>34.72900708818397</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19">
         <v>30.17876029135332</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19">
         <v>35.11358484134597</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19">
         <v>46.96291484542003</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19">
         <v>56.95412751761716</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Miguillas</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Hidro</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+    <row r="20" spans="1:32">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20">
         <v>69.99258543452723</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>40.31174746582619</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>37.37250555517036</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>42.86427867066229</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>52.85740483086861</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>43.09646987986092</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>36.1723966677321</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>40.55022788405461</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>92.13190483861075</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>42.13845127040579</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>32.36295904407247</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20">
         <v>31.78949279878156</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20">
         <v>46.24949522366455</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20">
         <v>33.94366123499809</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20">
         <v>34.70049777681257</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20">
         <v>48.13474889624125</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S20">
         <v>44.65518816724775</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T20">
         <v>37.58776705019416</v>
       </c>
-      <c r="U20" t="n">
+      <c r="U20">
         <v>34.09365265324117</v>
       </c>
-      <c r="V20" t="n">
+      <c r="V20">
         <v>37.85872343607663</v>
       </c>
-      <c r="W20" t="n">
+      <c r="W20">
         <v>43.0543448827163</v>
       </c>
-      <c r="X20" t="n">
+      <c r="X20">
         <v>50.64726594314652</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Y20">
         <v>34.79741453749293</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="Z20">
         <v>34.0363218097357</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA20">
         <v>35.32969358463499</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB20">
         <v>35.46515939930589</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC20">
         <v>28.37355139988486</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD20">
         <v>31.6553871502046</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE20">
         <v>41.94774230351698</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF20">
         <v>37.41818486447971</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Misicuni VHE</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Hidro</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+    <row r="21" spans="1:32">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21">
         <v>74.03156404210984</v>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>109.8764772639442</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>109.1808998224668</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>93.06168476304369</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>75.08953461817148</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>78.97111840143101</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>98.09386343467901</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>83.37092455858513</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>89.80774688156983</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21">
         <v>100.8463274026924</v>
       </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="n">
+      <c r="T21">
         <v>92.42356350130224</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21">
         <v>81.98509385353178</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21">
         <v>85.08956425605848</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21">
         <v>89.30106428167055</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21">
         <v>83.428111063288</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21">
         <v>90.86247766644519</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="Z21">
         <v>110.2278460720957</v>
       </c>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Qollpana (Fase I)</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Eólica</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+    </row>
+    <row r="22" spans="1:32">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22">
         <v>15.90122642728468</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>15.66154909453935</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>16.32536950226842</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>16.81808009533631</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>17.17102997565696</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>16.77490934683216</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>15.77350947795784</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>16.08915589991005</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>15.91541613592217</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>16.75178529644628</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22">
         <v>17.39202513659103</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22">
         <v>15.13667934806808</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22">
         <v>16.5825670729863</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P22">
         <v>16.54542523668618</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22">
         <v>15.52605343677438</v>
       </c>
-      <c r="R22" t="n">
+      <c r="R22">
         <v>15.24566840242382</v>
       </c>
-      <c r="S22" t="n">
+      <c r="S22">
         <v>14.99917743749428</v>
       </c>
-      <c r="T22" t="n">
+      <c r="T22">
         <v>15.09481121768056</v>
       </c>
-      <c r="U22" t="n">
+      <c r="U22">
         <v>15.23179928485978</v>
       </c>
-      <c r="V22" t="n">
+      <c r="V22">
         <v>15.26468777775109</v>
       </c>
-      <c r="W22" t="n">
+      <c r="W22">
         <v>18.88838376822923</v>
       </c>
-      <c r="X22" t="n">
+      <c r="X22">
         <v>20.27098038974561</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="Y22">
         <v>15.96345014463347</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="Z22">
         <v>16.08349547846713</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AA22">
         <v>15.45073277953128</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AB22">
         <v>16.2545098338756</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AC22">
         <v>15.25191012230036</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AD22">
         <v>14.77673480003637</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AE22">
         <v>16.47417893777186</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AF22">
         <v>15.83676174502775</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Qollpana (Fase II)</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Eólica</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+    <row r="23" spans="1:32">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23">
         <v>54.87465181058496</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>53.4801792637507</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>55.98146998401223</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>57.48020624834992</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>58.10542163871727</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>57.91661462694973</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>54.55368382934967</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>56.06307360000268</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>55.29176198922335</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>58.65675911158898</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23">
         <v>62.38648932309523</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23">
         <v>53.2182895588319</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O23">
         <v>59.8854752445404</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P23">
         <v>59.88784074568635</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q23">
         <v>54.38284764492342</v>
       </c>
-      <c r="R23" t="n">
+      <c r="R23">
         <v>53.80279507881036</v>
       </c>
-      <c r="S23" t="n">
+      <c r="S23">
         <v>54.12853594698573</v>
       </c>
-      <c r="T23" t="n">
+      <c r="T23">
         <v>54.77867130669218</v>
       </c>
-      <c r="U23" t="n">
+      <c r="U23">
         <v>55.28701268487756</v>
       </c>
-      <c r="V23" t="n">
+      <c r="V23">
         <v>56.09024349644569</v>
       </c>
-      <c r="W23" t="n">
+      <c r="W23">
         <v>70.38327699735368</v>
       </c>
-      <c r="X23" t="n">
+      <c r="X23">
         <v>77.48831970106858</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="Y23">
         <v>61.22478036767654</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="Z23">
         <v>62.65192089938969</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AA23">
         <v>63.2502276355765</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AB23">
         <v>65.71326701427365</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AC23">
         <v>61.72979609949387</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AD23">
         <v>60.72718082245591</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AE23">
         <v>68.78845546970466</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AF23">
         <v>66.60711961377125</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>RIO ELECTRICO S.A.</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Hidro</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
+    <row r="24" spans="1:32">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24">
         <v>42.85855017738326</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>41.79458697309089</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>42.20499745887413</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>44.73326777639497</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>44.3710117355583</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>44.7154216467962</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>39.1244441081697</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>43.43053423300059</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>45.59663174473005</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24">
         <v>48.02740328128537</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24">
         <v>48.84463477716572</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N24">
         <v>43.30832054795079</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O24">
         <v>45.00243064117155</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P24">
         <v>49.20466116700855</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q24">
         <v>37.33295709344855</v>
       </c>
-      <c r="R24" t="n">
+      <c r="R24">
         <v>45.1163845903937</v>
       </c>
-      <c r="S24" t="n">
+      <c r="S24">
         <v>33.52337248992878</v>
       </c>
-      <c r="T24" t="n">
+      <c r="T24">
         <v>24.96165034696997</v>
       </c>
-      <c r="U24" t="n">
+      <c r="U24">
         <v>25.12959380336694</v>
       </c>
-      <c r="V24" t="n">
+      <c r="V24">
         <v>25.39600288563904</v>
       </c>
-      <c r="W24" t="n">
+      <c r="W24">
         <v>28.9702738768039</v>
       </c>
-      <c r="X24" t="n">
+      <c r="X24">
         <v>31.66790693038362</v>
       </c>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>SDB</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Hidro</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
+    </row>
+    <row r="25" spans="1:32">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25">
         <v>46.50589189825867</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>31.63621355386378</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>33.79235985212488</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>34.77754892666115</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>40.66176206706465</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>56.31004835884149</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>61.80204910278623</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>70.84330684774673</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>75.21573162860641</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25">
         <v>82.32355394411437</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25">
         <v>70.34349948552793</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25">
         <v>57.54590474266804</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O25">
         <v>52.66431249362397</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P25">
         <v>40.24824028400101</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q25">
         <v>30.77477762140746</v>
       </c>
-      <c r="R25" t="n">
+      <c r="R25">
         <v>38.1084594115192</v>
       </c>
-      <c r="S25" t="n">
+      <c r="S25">
         <v>54.95889987171466</v>
       </c>
-      <c r="T25" t="n">
+      <c r="T25">
         <v>71.66250140611687</v>
       </c>
-      <c r="U25" t="n">
+      <c r="U25">
         <v>82.15779936200197</v>
       </c>
-      <c r="V25" t="n">
+      <c r="V25">
         <v>96.88639181017327</v>
       </c>
-      <c r="W25" t="n">
+      <c r="W25">
         <v>109.7454886194953</v>
       </c>
-      <c r="X25" t="n">
+      <c r="X25">
         <v>102.1435917406867</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="Y25">
         <v>78.85837014221606</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="Z25">
         <v>54.28750630201747</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AA25">
         <v>35.97588933609331</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AB25">
         <v>35.05457363157684</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AC25">
         <v>40.08729608240057</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AD25">
         <v>30.04392412744267</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AE25">
         <v>31.92362712053347</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AF25">
         <v>37.48810429915456</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>San Jacinto</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Hidro</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="n">
+    <row r="26" spans="1:32">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26">
         <v>35.18433713867534</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>29.2306023715003</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>38.42033617996444</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>82.89309947556538</v>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="N26">
         <v>98.3891811077402</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O26">
         <v>32.4468331442438</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P26">
         <v>30.54343585001464</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q26">
         <v>28.20291380693357</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R26">
         <v>31.84884779101516</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S26">
         <v>69.8243738653304</v>
       </c>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="n">
+      <c r="X26">
         <v>92.13436579430474</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="Y26">
         <v>47.16737942097112</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="Z26">
         <v>63.05108372781795</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AA26">
         <v>30.24421587360824</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AB26">
         <v>35.265825315253</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AC26">
         <v>30.1236703463637</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AD26">
         <v>42.11710625256754</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AE26">
         <v>91.45131203016605</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>San José I</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Hidro</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
+    </row>
+    <row r="27" spans="1:32">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27">
         <v>50.95386455748168</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>42.16894724129989</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>45.25530550978625</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>44.88067783497432</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>61.08406931123566</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>59.24559716042921</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>59.51730898347285</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>65.54338503486778</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>57.53405658587145</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27">
         <v>46.55516593356111</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27">
         <v>37.25064115130812</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N27">
         <v>28.98190966753128</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O27">
         <v>34.45250523894621</v>
       </c>
-      <c r="P27" t="n">
+      <c r="P27">
         <v>34.00784250550562</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q27">
         <v>27.94436065454308</v>
       </c>
-      <c r="R27" t="n">
+      <c r="R27">
         <v>29.06636410591276</v>
       </c>
-      <c r="S27" t="n">
+      <c r="S27">
         <v>32.77907819700069</v>
       </c>
-      <c r="T27" t="n">
+      <c r="T27">
         <v>36.53923498359479</v>
       </c>
-      <c r="U27" t="n">
+      <c r="U27">
         <v>38.75633922614567</v>
       </c>
-      <c r="V27" t="n">
+      <c r="V27">
         <v>45.61041751002049</v>
       </c>
-      <c r="W27" t="n">
+      <c r="W27">
         <v>47.00599394835503</v>
       </c>
-      <c r="X27" t="n">
+      <c r="X27">
         <v>49.34970417452364</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="Y27">
         <v>44.92134003884966</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="Z27">
         <v>32.71205122375284</v>
       </c>
-      <c r="AA27" t="n">
+      <c r="AA27">
         <v>29.30569407796402</v>
       </c>
-      <c r="AB27" t="n">
+      <c r="AB27">
         <v>34.94523550206061</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AC27">
         <v>28.47433842557323</v>
       </c>
-      <c r="AD27" t="n">
+      <c r="AD27">
         <v>28.12767118944348</v>
       </c>
-      <c r="AE27" t="n">
+      <c r="AE27">
         <v>29.99220159783248</v>
       </c>
-      <c r="AF27" t="n">
+      <c r="AF27">
         <v>34.19851702608855</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>San José II</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Hidro</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
+    <row r="28" spans="1:32">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28">
         <v>54.00688243397617</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>44.692113447739</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>47.60177990022714</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>47.1829372489567</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>64.92407681466607</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>63.30786468830421</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>63.19283752290114</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>69.26254259341196</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>60.74292584998749</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28">
         <v>49.51195064924867</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28">
         <v>39.02148329418184</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N28">
         <v>30.19045518917249</v>
       </c>
-      <c r="O28" t="n">
+      <c r="O28">
         <v>36.02736178233364</v>
       </c>
-      <c r="P28" t="n">
+      <c r="P28">
         <v>35.92445335680902</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="Q28">
         <v>29.06907473496362</v>
       </c>
-      <c r="R28" t="n">
+      <c r="R28">
         <v>30.34260763635253</v>
       </c>
-      <c r="S28" t="n">
+      <c r="S28">
         <v>34.13890008358752</v>
       </c>
-      <c r="T28" t="n">
+      <c r="T28">
         <v>38.65881705015274</v>
       </c>
-      <c r="U28" t="n">
+      <c r="U28">
         <v>40.70295225611648</v>
       </c>
-      <c r="V28" t="n">
+      <c r="V28">
         <v>47.79462332276475</v>
       </c>
-      <c r="W28" t="n">
+      <c r="W28">
         <v>49.82660432348481</v>
       </c>
-      <c r="X28" t="n">
+      <c r="X28">
         <v>51.89239542000757</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="Y28">
         <v>47.50272603962956</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="Z28">
         <v>34.12598787205851</v>
       </c>
-      <c r="AA28" t="n">
+      <c r="AA28">
         <v>30.72972070808314</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="AB28">
         <v>36.61330406033309</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AC28">
         <v>29.81281318527587</v>
       </c>
-      <c r="AD28" t="n">
+      <c r="AD28">
         <v>29.64737223747383</v>
       </c>
-      <c r="AE28" t="n">
+      <c r="AE28">
         <v>31.2008814573332</v>
       </c>
-      <c r="AF28" t="n">
+      <c r="AF28">
         <v>35.64047384234666</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Santa Cruz</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Termo</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
+    <row r="29" spans="1:32">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29">
         <v>21.51902513518386</v>
       </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>20.83904046232418</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>21.04027883566297</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>23.24781583716615</v>
       </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>27.44552852261236</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>32.6346506429576</v>
       </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
+      <c r="L29">
         <v>24.96314793230875</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M29">
         <v>29.45576222728974</v>
       </c>
-      <c r="N29" t="n">
+      <c r="N29">
         <v>26.67101771872942</v>
       </c>
-      <c r="O29" t="n">
+      <c r="O29">
         <v>26.64379774537349</v>
       </c>
-      <c r="P29" t="n">
+      <c r="P29">
         <v>23.6480036838491</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="Q29">
         <v>23.70700572699445</v>
       </c>
-      <c r="R29" t="n">
+      <c r="R29">
         <v>23.82887976788317</v>
       </c>
-      <c r="S29" t="n">
+      <c r="S29">
         <v>25.70552656718418</v>
       </c>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="n">
+      <c r="W29">
         <v>25.23704734789544</v>
       </c>
-      <c r="X29" t="n">
+      <c r="X29">
         <v>24.98185340666741</v>
       </c>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="n">
+      <c r="Z29">
         <v>25.9720999259864</v>
       </c>
-      <c r="AA29" t="n">
+      <c r="AA29">
         <v>25.79723548774233</v>
       </c>
-      <c r="AB29" t="n">
+      <c r="AB29">
         <v>25.19086023602631</v>
       </c>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="n">
+      <c r="AE29">
         <v>26.45157107013356</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Santa Cruz (EASBA)</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Biomasa</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
+    </row>
+    <row r="30" spans="1:32">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30">
         <v>29.276202935197</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>29.99253616444193</v>
       </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="n">
+      <c r="V30">
         <v>29.77074543356832</v>
       </c>
-      <c r="W30" t="n">
+      <c r="W30">
         <v>32.41085685142915</v>
       </c>
-      <c r="X30" t="n">
+      <c r="X30">
         <v>34.85041669964225</v>
       </c>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Santa Cruz (Unagro)</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Biomasa</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="n">
+    </row>
+    <row r="31" spans="1:32">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31">
         <v>29.59643610640058</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>28.28425885751584</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>29.14896657993646</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31">
         <v>30.05805477864697</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M31">
         <v>29.68388941621605</v>
       </c>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="n">
+      <c r="T31">
         <v>29.30675734253598</v>
       </c>
-      <c r="U31" t="n">
+      <c r="U31">
         <v>28.96980174068775</v>
       </c>
-      <c r="V31" t="n">
+      <c r="V31">
         <v>29.31217141923422</v>
       </c>
-      <c r="W31" t="n">
+      <c r="W31">
         <v>33.15870995104898</v>
       </c>
-      <c r="X31" t="n">
+      <c r="X31">
         <v>34.6467571991866</v>
       </c>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="n">
+      <c r="AF31">
         <v>31.08159005127859</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Santa Isabel</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Hidro</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
+    <row r="32" spans="1:32">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32">
         <v>79.14964995406967</v>
       </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>60.40678457383105</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>53.32357965811186</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>49.25903143206968</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>51.44827617135794</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L32">
         <v>46.47646313806546</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M32">
         <v>43.12205146948526</v>
       </c>
-      <c r="N32" t="n">
+      <c r="N32">
         <v>32.7363029356967</v>
       </c>
-      <c r="O32" t="n">
+      <c r="O32">
         <v>68.96949311241461</v>
       </c>
-      <c r="P32" t="n">
+      <c r="P32">
         <v>47.44253598244694</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q32">
         <v>28.89204898255377</v>
       </c>
-      <c r="R32" t="n">
+      <c r="R32">
         <v>30.54550344684563</v>
       </c>
-      <c r="S32" t="n">
+      <c r="S32">
         <v>33.11467646152695</v>
       </c>
-      <c r="T32" t="n">
+      <c r="T32">
         <v>33.26096140540955</v>
       </c>
-      <c r="U32" t="n">
+      <c r="U32">
         <v>33.8168995972804</v>
       </c>
-      <c r="V32" t="n">
+      <c r="V32">
         <v>38.1966685609769</v>
       </c>
-      <c r="W32" t="n">
+      <c r="W32">
         <v>39.73129720866189</v>
       </c>
-      <c r="X32" t="n">
+      <c r="X32">
         <v>42.29910055750423</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="Y32">
         <v>45.9412910269071</v>
       </c>
-      <c r="Z32" t="n">
+      <c r="Z32">
         <v>39.32621558756026</v>
       </c>
-      <c r="AA32" t="n">
+      <c r="AA32">
         <v>38.98101305438478</v>
       </c>
-      <c r="AB32" t="n">
+      <c r="AB32">
         <v>48.80546862265204</v>
       </c>
-      <c r="AC32" t="n">
+      <c r="AC32">
         <v>29.78414265091186</v>
       </c>
-      <c r="AD32" t="n">
+      <c r="AD32">
         <v>28.19794335873337</v>
       </c>
-      <c r="AE32" t="n">
+      <c r="AE32">
         <v>30.43199198817833</v>
       </c>
-      <c r="AF32" t="n">
+      <c r="AF32">
         <v>32.46803312039383</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Solar Oruro (Fase I)</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Solar</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
+    <row r="33" spans="1:32">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33">
         <v>51.714451082964</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>49.75489278345417</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>53.85386549215347</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>52.07787556602706</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>54.41235009143887</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>55.98379916045716</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>51.83229191207158</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>52.71798651604851</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>53.26779217525259</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L33">
         <v>56.48465183952614</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M33">
         <v>56.60642794632711</v>
       </c>
-      <c r="N33" t="n">
+      <c r="N33">
         <v>49.83279365780958</v>
       </c>
-      <c r="O33" t="n">
+      <c r="O33">
         <v>53.88614428288363</v>
       </c>
-      <c r="P33" t="n">
+      <c r="P33">
         <v>53.61237412091314</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="Q33">
         <v>51.37257100924343</v>
       </c>
-      <c r="R33" t="n">
+      <c r="R33">
         <v>50.68581573960522</v>
       </c>
-      <c r="S33" t="n">
+      <c r="S33">
         <v>50.8277124201076</v>
       </c>
-      <c r="T33" t="n">
+      <c r="T33">
         <v>51.00763550128465</v>
       </c>
-      <c r="U33" t="n">
+      <c r="U33">
         <v>51.86218133406767</v>
       </c>
-      <c r="V33" t="n">
+      <c r="V33">
         <v>53.15559539689821</v>
       </c>
-      <c r="W33" t="n">
+      <c r="W33">
         <v>64.08848763804292</v>
       </c>
-      <c r="X33" t="n">
+      <c r="X33">
         <v>65.36693034912744</v>
       </c>
-      <c r="Y33" t="n">
+      <c r="Y33">
         <v>55.17325698678211</v>
       </c>
-      <c r="Z33" t="n">
+      <c r="Z33">
         <v>58.05879351413334</v>
       </c>
-      <c r="AA33" t="n">
+      <c r="AA33">
         <v>54.31360114452115</v>
       </c>
-      <c r="AB33" t="n">
+      <c r="AB33">
         <v>56.38251177574104</v>
       </c>
-      <c r="AC33" t="n">
+      <c r="AC33">
         <v>53.20233281187478</v>
       </c>
-      <c r="AD33" t="n">
+      <c r="AD33">
         <v>52.34040500305011</v>
       </c>
-      <c r="AE33" t="n">
+      <c r="AE33">
         <v>56.90262318124508</v>
       </c>
-      <c r="AF33" t="n">
+      <c r="AF33">
         <v>54.88558207279166</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Solar Oruro (Fase II)</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Solar</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
+    <row r="34" spans="1:32">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34">
         <v>49.56139348411854</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>47.66787459282371</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>51.6202299330042</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>49.90904691926842</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>52.2265966576512</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>53.57767019255567</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>49.65145534197276</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>50.49333231393762</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34">
         <v>51.01641591763868</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L34">
         <v>54.05445708873724</v>
       </c>
-      <c r="M34" t="n">
+      <c r="M34">
         <v>54.13677944591575</v>
       </c>
-      <c r="N34" t="n">
+      <c r="N34">
         <v>47.66353393526713</v>
       </c>
-      <c r="O34" t="n">
+      <c r="O34">
         <v>51.5818945679484</v>
       </c>
-      <c r="P34" t="n">
+      <c r="P34">
         <v>51.27077962943323</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="Q34">
         <v>49.15724921043389</v>
       </c>
-      <c r="R34" t="n">
+      <c r="R34">
         <v>48.46403297146806</v>
       </c>
-      <c r="S34" t="n">
+      <c r="S34">
         <v>48.61316252075013</v>
       </c>
-      <c r="T34" t="n">
+      <c r="T34">
         <v>48.75326259153329</v>
       </c>
-      <c r="U34" t="n">
+      <c r="U34">
         <v>49.48738910217254</v>
       </c>
-      <c r="V34" t="n">
+      <c r="V34">
         <v>50.73421911081743</v>
       </c>
-      <c r="W34" t="n">
+      <c r="W34">
         <v>61.30059105032274</v>
       </c>
-      <c r="X34" t="n">
+      <c r="X34">
         <v>62.43932737179578</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="Y34">
         <v>52.61838048326824</v>
       </c>
-      <c r="Z34" t="n">
+      <c r="Z34">
         <v>54.63212860026991</v>
       </c>
-      <c r="AA34" t="n">
+      <c r="AA34">
         <v>51.60000225420085</v>
       </c>
-      <c r="AB34" t="n">
+      <c r="AB34">
         <v>53.69845487673204</v>
       </c>
-      <c r="AC34" t="n">
+      <c r="AC34">
         <v>50.61426654785929</v>
       </c>
-      <c r="AD34" t="n">
+      <c r="AD34">
         <v>49.76244020276987</v>
       </c>
-      <c r="AE34" t="n">
+      <c r="AE34">
         <v>53.9180265758834</v>
       </c>
-      <c r="AF34" t="n">
+      <c r="AF34">
         <v>52.00387185982132</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Uyuni</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Solar</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
+    <row r="35" spans="1:32">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35">
         <v>53.71628446902239</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>52.36053772241289</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>55.30887202947071</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>54.08125814750094</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>56.61302606503748</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>57.8285957048296</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>52.3945428204707</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>53.34510532734048</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>53.50322772721827</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L35">
         <v>57.62228719865943</v>
       </c>
-      <c r="M35" t="n">
+      <c r="M35">
         <v>57.53052160813291</v>
       </c>
-      <c r="N35" t="n">
+      <c r="N35">
         <v>51.58192498039442</v>
       </c>
-      <c r="O35" t="n">
+      <c r="O35">
         <v>54.87777045118359</v>
       </c>
-      <c r="P35" t="n">
+      <c r="P35">
         <v>54.61581936910425</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="Q35">
         <v>52.27984924419948</v>
       </c>
-      <c r="R35" t="n">
+      <c r="R35">
         <v>50.88174366225012</v>
       </c>
-      <c r="S35" t="n">
+      <c r="S35">
         <v>50.57275904942627</v>
       </c>
-      <c r="T35" t="n">
+      <c r="T35">
         <v>50.80980806986758</v>
       </c>
-      <c r="U35" t="n">
+      <c r="U35">
         <v>51.57107568307799</v>
       </c>
-      <c r="V35" t="n">
+      <c r="V35">
         <v>52.36280677043924</v>
       </c>
-      <c r="W35" t="n">
+      <c r="W35">
         <v>63.16769847610485</v>
       </c>
-      <c r="X35" t="n">
+      <c r="X35">
         <v>64.85735503558828</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="Y35">
         <v>54.05955077322833</v>
       </c>
-      <c r="Z35" t="n">
+      <c r="Z35">
         <v>56.29487478429253</v>
       </c>
-      <c r="AA35" t="n">
+      <c r="AA35">
         <v>53.64337160943541</v>
       </c>
-      <c r="AB35" t="n">
+      <c r="AB35">
         <v>55.79610998850471</v>
       </c>
-      <c r="AC35" t="n">
+      <c r="AC35">
         <v>51.93255952361046</v>
       </c>
-      <c r="AD35" t="n">
+      <c r="AD35">
         <v>51.12547590892686</v>
       </c>
-      <c r="AE35" t="n">
+      <c r="AE35">
         <v>52.58005824005222</v>
       </c>
-      <c r="AF35" t="n">
+      <c r="AF35">
         <v>50.13006449301095</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Valle Hermoso</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Termo</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
+    <row r="36" spans="1:32">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36">
         <v>20.63394610284283</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>21.15578034496693</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>20.83518202855175</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>21.17358318673034</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>24.98350290406187</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>22.11667204544706</v>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>23.06549257405478</v>
       </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
+      <c r="L36">
         <v>31.38515344207907</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M36">
         <v>22.96183614484618</v>
       </c>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="n">
+      <c r="O36">
         <v>23.17136339673455</v>
       </c>
-      <c r="P36" t="n">
+      <c r="P36">
         <v>25.31083000491254</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="Q36">
         <v>23.64866426133485</v>
       </c>
-      <c r="R36" t="n">
+      <c r="R36">
         <v>32.12043311726576</v>
       </c>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="n">
+      <c r="U36">
         <v>40.9712096753196</v>
       </c>
-      <c r="V36" t="n">
+      <c r="V36">
         <v>25.63263543520351</v>
       </c>
-      <c r="W36" t="n">
+      <c r="W36">
         <v>22.04452410561705</v>
       </c>
-      <c r="X36" t="n">
+      <c r="X36">
         <v>22.01735871883371</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="Y36">
         <v>87.21788408971767</v>
       </c>
-      <c r="Z36" t="n">
+      <c r="Z36">
         <v>54.28015500163052</v>
       </c>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="n">
+      <c r="AB36">
         <v>94.51302217667784</v>
       </c>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="n">
+      <c r="AE36">
         <v>66.26317359365316</v>
       </c>
-      <c r="AF36" t="n">
+      <c r="AF36">
         <v>24.52445101646369</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Warnes</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Termo</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
+    <row r="37" spans="1:32">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37">
         <v>30.26407124801968</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>32.96698618028883</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>29.32212986234979</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>29.44639980062968</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>30.66477212315862</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>30.33241312455273</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>30.5442622621787</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>29.88015171800824</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37">
         <v>30.19000867561819</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L37">
         <v>30.29334428449937</v>
       </c>
-      <c r="M37" t="n">
+      <c r="M37">
         <v>33.64568668147474</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N37">
         <v>32.23610581103531</v>
       </c>
-      <c r="O37" t="n">
+      <c r="O37">
         <v>30.99301348156386</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P37">
         <v>30.93784812698535</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q37">
         <v>32.06241423275874</v>
       </c>
-      <c r="R37" t="n">
+      <c r="R37">
         <v>31.18621081966296</v>
       </c>
-      <c r="S37" t="n">
+      <c r="S37">
         <v>34.89039219676263</v>
       </c>
-      <c r="T37" t="n">
+      <c r="T37">
         <v>35.10268469146914</v>
       </c>
-      <c r="U37" t="n">
+      <c r="U37">
         <v>33.51114238404825</v>
       </c>
-      <c r="V37" t="n">
+      <c r="V37">
         <v>30.69523807085066</v>
       </c>
-      <c r="W37" t="n">
+      <c r="W37">
         <v>33.94750985239826</v>
       </c>
-      <c r="X37" t="n">
+      <c r="X37">
         <v>34.71107618457686</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="Y37">
         <v>33.8884510057589</v>
       </c>
-      <c r="Z37" t="n">
+      <c r="Z37">
         <v>32.53167519794066</v>
       </c>
-      <c r="AA37" t="n">
+      <c r="AA37">
         <v>31.70440587719019</v>
       </c>
-      <c r="AB37" t="n">
+      <c r="AB37">
         <v>34.36188299351475</v>
       </c>
-      <c r="AC37" t="n">
+      <c r="AC37">
         <v>36.32594400602273</v>
       </c>
-      <c r="AD37" t="n">
+      <c r="AD37">
         <v>39.96596168469523</v>
       </c>
-      <c r="AE37" t="n">
+      <c r="AE37">
         <v>36.85782629475037</v>
       </c>
-      <c r="AF37" t="n">
+      <c r="AF37">
         <v>37.36424704675169</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Yunchara</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Solar</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
+    <row r="38" spans="1:32">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38">
         <v>92.23720373278699</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>89.99811398342636</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>94.69927357966922</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>92.35020268160125</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>97.82490697436245</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>99.5552614916211</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>89.86384436213866</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>91.66450879721256</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38">
         <v>92.02612291283623</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L38">
         <v>98.6461827907017</v>
       </c>
-      <c r="M38" t="n">
+      <c r="M38">
         <v>99.96754128669471</v>
       </c>
-      <c r="N38" t="n">
+      <c r="N38">
         <v>90.13594287050975</v>
       </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="n">
+      <c r="Q38">
         <v>92.71283675235523</v>
       </c>
-      <c r="R38" t="n">
+      <c r="R38">
         <v>89.03258373836999</v>
       </c>
-      <c r="S38" t="n">
+      <c r="S38">
         <v>89.52717743826491</v>
       </c>
-      <c r="T38" t="n">
+      <c r="T38">
         <v>90.10732996059883</v>
       </c>
-      <c r="U38" t="n">
+      <c r="U38">
         <v>91.5334739486788</v>
       </c>
-      <c r="V38" t="n">
+      <c r="V38">
         <v>93.28244887862479</v>
       </c>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="n">
+      <c r="Y38">
         <v>101.1448593683752</v>
       </c>
-      <c r="Z38" t="n">
+      <c r="Z38">
         <v>105.7004946103663</v>
       </c>
-      <c r="AA38" t="n">
+      <c r="AA38">
         <v>102.5852849801002</v>
       </c>
-      <c r="AB38" t="n">
+      <c r="AB38">
         <v>106.4717493595162</v>
       </c>
-      <c r="AC38" t="n">
+      <c r="AC38">
         <v>100.2925186549376</v>
       </c>
-      <c r="AD38" t="n">
+      <c r="AD38">
         <v>99.54359825642118</v>
       </c>
-      <c r="AE38" t="n">
+      <c r="AE38">
         <v>108.0890656328173</v>
       </c>
-      <c r="AF38" t="n">
+      <c r="AF38">
         <v>103.5975374456089</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Zongo</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Hidro</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
+    <row r="39" spans="1:32">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39">
         <v>33.66375430732452</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>33.36064478484334</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>32.31176174482109</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>34.31686992904541</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>37.23870536261955</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>46.53841416155701</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>48.30322588309092</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>54.21515125496233</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>57.71871920217923</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L39">
         <v>46.51817735868297</v>
       </c>
-      <c r="M39" t="n">
+      <c r="M39">
         <v>40.69237929341951</v>
       </c>
-      <c r="N39" t="n">
+      <c r="N39">
         <v>30.85554123125481</v>
       </c>
-      <c r="O39" t="n">
+      <c r="O39">
         <v>40.25067688952186</v>
       </c>
-      <c r="P39" t="n">
+      <c r="P39">
         <v>35.09302858328922</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="Q39">
         <v>31.92752619158619</v>
       </c>
-      <c r="R39" t="n">
+      <c r="R39">
         <v>33.570437985383</v>
       </c>
-      <c r="S39" t="n">
+      <c r="S39">
         <v>37.5461599584136</v>
       </c>
-      <c r="T39" t="n">
+      <c r="T39">
         <v>44.90264111936129</v>
       </c>
-      <c r="U39" t="n">
+      <c r="U39">
         <v>47.10396008895513</v>
       </c>
-      <c r="V39" t="n">
+      <c r="V39">
         <v>48.14748016130879</v>
       </c>
-      <c r="W39" t="n">
+      <c r="W39">
         <v>59.75162663081338</v>
       </c>
-      <c r="X39" t="n">
+      <c r="X39">
         <v>56.09461201206894</v>
       </c>
-      <c r="Y39" t="n">
+      <c r="Y39">
         <v>36.82203899920513</v>
       </c>
-      <c r="Z39" t="n">
+      <c r="Z39">
         <v>33.17975226294801</v>
       </c>
-      <c r="AA39" t="n">
+      <c r="AA39">
         <v>32.40090367521773</v>
       </c>
-      <c r="AB39" t="n">
+      <c r="AB39">
         <v>33.38655211553841</v>
       </c>
-      <c r="AC39" t="n">
+      <c r="AC39">
         <v>31.1186513955148</v>
       </c>
-      <c r="AD39" t="n">
+      <c r="AD39">
         <v>31.63327577239362</v>
       </c>
-      <c r="AE39" t="n">
+      <c r="AE39">
         <v>36.67799188963662</v>
       </c>
-      <c r="AF39" t="n">
+      <c r="AF39">
         <v>45.02533438155243</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>